--- a/documentacao/analytics.xlsx
+++ b/documentacao/analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberta\Desktop\projeto-individual-site\blank-paper\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2A1AE4-B64F-4329-92E5-1059368030C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D53AC5-EEF0-47A9-B9BB-474F4407D101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Pacotes de comissões</t>
   </si>
@@ -65,12 +65,36 @@
   <si>
     <t>4°</t>
   </si>
+  <si>
+    <t>1° Semana</t>
+  </si>
+  <si>
+    <t>2° Semana</t>
+  </si>
+  <si>
+    <t>3° Semana</t>
+  </si>
+  <si>
+    <t>4° Semana</t>
+  </si>
+  <si>
+    <t>5° Semana</t>
+  </si>
+  <si>
+    <t>6° Semana</t>
+  </si>
+  <si>
+    <t>7° Semana</t>
+  </si>
+  <si>
+    <t>8° Semana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +105,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -139,6 +171,7 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,13 +605,13 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,7 +1659,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,6 +1672,9 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
@@ -1650,6 +1686,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
@@ -1661,6 +1700,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1672,6 +1714,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1683,6 +1728,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
@@ -1694,6 +1742,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1701,10 +1752,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1712,10 +1766,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -1736,6 +1793,7 @@
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -1743,6 +1801,9 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1814,7 +1875,7 @@
       </c>
       <c r="E17" s="3">
         <f>_xlfn.QUARTILE.EXC(D2:D9,2)</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,11 +1915,12 @@
       </c>
       <c r="E19" s="3">
         <f>MAX(D2:D9)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>